--- a/config_1.19/game_module_config.xlsx
+++ b/config_1.19/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="971">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3893,9 +3893,6 @@
     <t>Act_039_TYBYDROPManager</t>
   </si>
   <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
     <t>12月28日23:59:59</t>
   </si>
   <si>
@@ -4076,12 +4073,81 @@
     <t>Sys_Act_CZZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通用活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掉落活动</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_collect_words</t>
+  </si>
+  <si>
+    <t>Act_Ty_ Collet_WordsManager</t>
+  </si>
+  <si>
+    <t>SYS_JBPManager</t>
+  </si>
+  <si>
+    <t>sys_jbp</t>
+  </si>
+  <si>
+    <t>通用活动--发财礼包模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25日 23:59:59</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4170,8 +4236,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4214,6 +4294,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4246,7 +4332,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4341,6 +4427,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4620,16 +4721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A314" sqref="A314:XFD314"/>
+      <selection pane="bottomRight" activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
@@ -4642,7 +4743,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4671,7 +4772,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -4697,7 +4798,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -4723,7 +4824,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -4749,7 +4850,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -4775,7 +4876,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -4801,7 +4902,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -4827,7 +4928,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -4853,7 +4954,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -4879,7 +4980,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -4905,7 +5006,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -4931,7 +5032,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -4957,7 +5058,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -4983,7 +5084,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -5009,7 +5110,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -5035,7 +5136,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -5061,7 +5162,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -5087,7 +5188,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -5113,7 +5214,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -5139,7 +5240,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -5165,7 +5266,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -5191,7 +5292,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -5217,7 +5318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -5243,7 +5344,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -5269,7 +5370,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -5295,7 +5396,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -5321,7 +5422,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -5347,7 +5448,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -5373,7 +5474,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -5399,7 +5500,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -5425,7 +5526,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -5451,7 +5552,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -5477,7 +5578,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -5503,7 +5604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -5529,7 +5630,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -5555,7 +5656,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -5581,7 +5682,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -5607,7 +5708,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -5633,7 +5734,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -5659,7 +5760,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -5685,7 +5786,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -5711,7 +5812,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -5737,7 +5838,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -5763,7 +5864,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -5789,7 +5890,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -5815,7 +5916,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -5841,7 +5942,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -5867,7 +5968,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="16">
         <v>47</v>
       </c>
@@ -5893,7 +5994,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -5919,7 +6020,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="16">
         <v>49</v>
       </c>
@@ -5945,7 +6046,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -5971,7 +6072,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -5995,7 +6096,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="16">
         <v>52</v>
       </c>
@@ -6021,7 +6122,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -6047,7 +6148,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -6073,7 +6174,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -6099,7 +6200,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -6125,7 +6226,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -6151,7 +6252,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -6177,7 +6278,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6203,7 +6304,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -6229,7 +6330,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -6255,7 +6356,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="16">
         <v>62</v>
       </c>
@@ -6281,7 +6382,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="16">
         <v>63</v>
       </c>
@@ -6307,7 +6408,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="16">
         <v>64</v>
       </c>
@@ -6333,7 +6434,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="16">
         <v>65</v>
       </c>
@@ -6359,7 +6460,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="16">
         <v>66</v>
       </c>
@@ -6385,7 +6486,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="16">
         <v>67</v>
       </c>
@@ -6411,7 +6512,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="16">
         <v>68</v>
       </c>
@@ -6437,7 +6538,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="16">
         <v>69</v>
       </c>
@@ -6463,7 +6564,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="16">
         <v>70</v>
       </c>
@@ -6489,7 +6590,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="16">
         <v>71</v>
       </c>
@@ -6515,7 +6616,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="16">
         <v>72</v>
       </c>
@@ -6541,7 +6642,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
@@ -6567,7 +6668,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="16">
         <v>74</v>
       </c>
@@ -6593,7 +6694,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
@@ -6619,7 +6720,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="16">
         <v>76</v>
       </c>
@@ -6645,7 +6746,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="16">
         <v>77</v>
       </c>
@@ -6671,7 +6772,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="16">
         <v>78</v>
       </c>
@@ -6697,7 +6798,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="16">
         <v>79</v>
       </c>
@@ -6723,7 +6824,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="16">
         <v>80</v>
       </c>
@@ -6749,7 +6850,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="16">
         <v>81</v>
       </c>
@@ -6775,7 +6876,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="16">
         <v>82</v>
       </c>
@@ -6801,7 +6902,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="16">
         <v>83</v>
       </c>
@@ -6827,7 +6928,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="16">
         <v>84</v>
       </c>
@@ -6853,7 +6954,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="16">
         <v>85</v>
       </c>
@@ -6879,7 +6980,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="16">
         <v>86</v>
       </c>
@@ -6905,7 +7006,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="16">
         <v>87</v>
       </c>
@@ -6931,7 +7032,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="16">
         <v>88</v>
       </c>
@@ -6957,7 +7058,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="16">
         <v>89</v>
       </c>
@@ -6983,7 +7084,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="16">
         <v>90</v>
       </c>
@@ -7009,7 +7110,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="16">
         <v>91</v>
       </c>
@@ -7035,7 +7136,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="16">
         <v>92</v>
       </c>
@@ -7061,7 +7162,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="16">
         <v>93</v>
       </c>
@@ -7087,7 +7188,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="16">
         <v>94</v>
       </c>
@@ -7113,7 +7214,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="16">
         <v>95</v>
       </c>
@@ -7139,7 +7240,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="16">
         <v>96</v>
       </c>
@@ -7165,7 +7266,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="16">
         <v>97</v>
       </c>
@@ -7191,7 +7292,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="16">
         <v>98</v>
       </c>
@@ -7217,7 +7318,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="16">
         <v>99</v>
       </c>
@@ -7243,7 +7344,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="16">
         <v>100</v>
       </c>
@@ -7269,7 +7370,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="16">
         <v>101</v>
       </c>
@@ -7295,7 +7396,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="16">
         <v>102</v>
       </c>
@@ -7321,7 +7422,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="16">
         <v>103</v>
       </c>
@@ -7347,7 +7448,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="16">
         <v>104</v>
       </c>
@@ -7373,7 +7474,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="16">
         <v>105</v>
       </c>
@@ -7399,7 +7500,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="16">
         <v>106</v>
       </c>
@@ -7425,7 +7526,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="16">
         <v>107</v>
       </c>
@@ -7451,7 +7552,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="16">
         <v>108</v>
       </c>
@@ -7477,7 +7578,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="16">
         <v>109</v>
       </c>
@@ -7503,7 +7604,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="16">
         <v>110</v>
       </c>
@@ -7529,7 +7630,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="16">
         <v>111</v>
       </c>
@@ -7555,7 +7656,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="16">
         <v>112</v>
       </c>
@@ -7581,7 +7682,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="16">
         <v>113</v>
       </c>
@@ -7607,7 +7708,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="16">
         <v>114</v>
       </c>
@@ -7633,7 +7734,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="16">
         <v>115</v>
       </c>
@@ -7659,7 +7760,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="16">
         <v>116</v>
       </c>
@@ -7685,7 +7786,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="16">
         <v>117</v>
       </c>
@@ -7711,7 +7812,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="16.5">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -7737,7 +7838,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="16">
         <v>119</v>
       </c>
@@ -7763,7 +7864,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="16">
         <v>120</v>
       </c>
@@ -7789,7 +7890,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="16">
         <v>121</v>
       </c>
@@ -7815,7 +7916,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="16">
         <v>122</v>
       </c>
@@ -7841,7 +7942,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="16">
         <v>123</v>
       </c>
@@ -7867,7 +7968,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="16">
         <v>124</v>
       </c>
@@ -7893,7 +7994,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="16">
         <v>125</v>
       </c>
@@ -7919,7 +8020,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="16">
         <v>126</v>
       </c>
@@ -7945,7 +8046,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="16">
         <v>127</v>
       </c>
@@ -7971,7 +8072,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="16">
         <v>128</v>
       </c>
@@ -7997,7 +8098,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="16">
         <v>129</v>
       </c>
@@ -8023,7 +8124,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="16">
         <v>130</v>
       </c>
@@ -8049,7 +8150,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="16">
         <v>131</v>
       </c>
@@ -8075,7 +8176,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="16">
         <v>132</v>
       </c>
@@ -8101,7 +8202,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="16">
         <v>133</v>
       </c>
@@ -8127,7 +8228,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="16">
         <v>134</v>
       </c>
@@ -8153,7 +8254,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="16">
         <v>135</v>
       </c>
@@ -8179,7 +8280,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="16">
         <v>136</v>
       </c>
@@ -8205,7 +8306,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="16">
         <v>137</v>
       </c>
@@ -8231,7 +8332,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="16">
         <v>138</v>
       </c>
@@ -8257,7 +8358,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="16">
         <v>139</v>
       </c>
@@ -8283,7 +8384,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="16">
         <v>140</v>
       </c>
@@ -8309,7 +8410,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="16">
         <v>141</v>
       </c>
@@ -8335,7 +8436,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="16">
         <v>142</v>
       </c>
@@ -8361,7 +8462,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="16">
         <v>143</v>
       </c>
@@ -8387,7 +8488,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="16">
         <v>144</v>
       </c>
@@ -8413,7 +8514,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="16">
         <v>145</v>
       </c>
@@ -8439,7 +8540,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="16">
         <v>146</v>
       </c>
@@ -8465,7 +8566,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="16">
         <v>147</v>
       </c>
@@ -8491,7 +8592,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="16">
         <v>148</v>
       </c>
@@ -8517,7 +8618,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="16">
         <v>149</v>
       </c>
@@ -8543,7 +8644,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="16">
         <v>150</v>
       </c>
@@ -8569,7 +8670,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="16">
         <v>151</v>
       </c>
@@ -8595,7 +8696,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="16">
         <v>152</v>
       </c>
@@ -8621,7 +8722,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="16">
         <v>153</v>
       </c>
@@ -8647,7 +8748,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="16">
         <v>154</v>
       </c>
@@ -8673,7 +8774,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="16">
         <v>155</v>
       </c>
@@ -8699,7 +8800,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="16">
         <v>156</v>
       </c>
@@ -8725,7 +8826,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="16">
         <v>157</v>
       </c>
@@ -8751,7 +8852,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="16">
         <v>158</v>
       </c>
@@ -8777,7 +8878,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="16">
         <v>159</v>
       </c>
@@ -8803,7 +8904,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="16">
         <v>160</v>
       </c>
@@ -8829,7 +8930,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="16">
         <v>161</v>
       </c>
@@ -8855,7 +8956,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="16">
         <v>162</v>
       </c>
@@ -8881,7 +8982,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="16">
         <v>163</v>
       </c>
@@ -8907,7 +9008,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="16">
         <v>164</v>
       </c>
@@ -8933,7 +9034,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="16">
         <v>165</v>
       </c>
@@ -8959,7 +9060,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="16">
         <v>166</v>
       </c>
@@ -8985,7 +9086,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="16">
         <v>167</v>
       </c>
@@ -9011,7 +9112,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="16">
         <v>168</v>
       </c>
@@ -9037,7 +9138,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="16">
         <v>169</v>
       </c>
@@ -9061,7 +9162,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="16">
         <v>170</v>
       </c>
@@ -9085,7 +9186,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="16">
         <v>171</v>
       </c>
@@ -9109,7 +9210,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="16">
         <v>172</v>
       </c>
@@ -9133,7 +9234,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="16">
         <v>173</v>
       </c>
@@ -9159,7 +9260,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="16">
         <v>174</v>
       </c>
@@ -9183,7 +9284,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="16">
         <v>175</v>
       </c>
@@ -9207,7 +9308,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="16">
         <v>176</v>
       </c>
@@ -9231,7 +9332,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="16">
         <v>177</v>
       </c>
@@ -9257,7 +9358,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="16">
         <v>178</v>
       </c>
@@ -9283,7 +9384,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
@@ -9307,7 +9408,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A181" s="16">
         <v>180</v>
       </c>
@@ -9331,7 +9432,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A182" s="16">
         <v>181</v>
       </c>
@@ -9355,7 +9456,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
@@ -9379,7 +9480,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="16">
         <v>183</v>
       </c>
@@ -9402,7 +9503,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="16">
         <v>184</v>
       </c>
@@ -9425,7 +9526,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="16">
         <v>185</v>
       </c>
@@ -9448,7 +9549,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="16">
         <v>186</v>
       </c>
@@ -9471,7 +9572,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="16">
         <v>187</v>
       </c>
@@ -9494,7 +9595,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="16">
         <v>188</v>
       </c>
@@ -9517,7 +9618,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="16">
         <v>189</v>
       </c>
@@ -9540,7 +9641,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="16">
         <v>190</v>
       </c>
@@ -9563,7 +9664,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="16">
         <v>191</v>
       </c>
@@ -9586,7 +9687,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="16">
         <v>192</v>
       </c>
@@ -9609,7 +9710,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="16">
         <v>193</v>
       </c>
@@ -9632,7 +9733,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="16">
         <v>194</v>
       </c>
@@ -9655,7 +9756,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="16">
         <v>195</v>
       </c>
@@ -9678,7 +9779,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="16">
         <v>196</v>
       </c>
@@ -9701,7 +9802,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="16">
         <v>197</v>
       </c>
@@ -9724,7 +9825,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="16">
         <v>198</v>
       </c>
@@ -9747,7 +9848,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="16">
         <v>199</v>
       </c>
@@ -9770,7 +9871,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="16">
         <v>200</v>
       </c>
@@ -9793,7 +9894,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="16">
         <v>201</v>
       </c>
@@ -9816,7 +9917,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="16">
         <v>202</v>
       </c>
@@ -9839,7 +9940,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
@@ -9862,7 +9963,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="16">
         <v>204</v>
       </c>
@@ -9888,7 +9989,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="16">
         <v>205</v>
       </c>
@@ -9914,7 +10015,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
@@ -9940,7 +10041,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="16">
         <v>207</v>
       </c>
@@ -9963,7 +10064,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="16">
         <v>208</v>
       </c>
@@ -9986,7 +10087,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="16">
         <v>209</v>
       </c>
@@ -10009,7 +10110,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="16">
         <v>210</v>
       </c>
@@ -10032,7 +10133,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="16">
         <v>211</v>
       </c>
@@ -10055,7 +10156,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="16">
         <v>212</v>
       </c>
@@ -10078,7 +10179,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="16">
         <v>213</v>
       </c>
@@ -10101,7 +10202,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="16">
         <v>214</v>
       </c>
@@ -10124,7 +10225,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="16">
         <v>215</v>
       </c>
@@ -10147,7 +10248,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="16">
         <v>216</v>
       </c>
@@ -10170,7 +10271,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="16">
         <v>217</v>
       </c>
@@ -10193,7 +10294,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="16">
         <v>218</v>
       </c>
@@ -10216,7 +10317,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="16">
         <v>219</v>
       </c>
@@ -10239,7 +10340,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="16">
         <v>220</v>
       </c>
@@ -10262,7 +10363,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="16">
         <v>221</v>
       </c>
@@ -10285,7 +10386,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="16">
         <v>222</v>
       </c>
@@ -10308,7 +10409,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="16">
         <v>223</v>
       </c>
@@ -10331,7 +10432,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
@@ -10354,7 +10455,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="16">
         <v>225</v>
       </c>
@@ -10377,7 +10478,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="16">
         <v>226</v>
       </c>
@@ -10400,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="16">
         <v>227</v>
       </c>
@@ -10423,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="16">
         <v>228</v>
       </c>
@@ -10446,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="16">
         <v>229</v>
       </c>
@@ -10469,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="16">
         <v>230</v>
       </c>
@@ -10492,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="16">
         <v>231</v>
       </c>
@@ -10515,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="16">
         <v>232</v>
       </c>
@@ -10538,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="16">
         <v>233</v>
       </c>
@@ -10561,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="16">
         <v>234</v>
       </c>
@@ -10584,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="16">
         <v>235</v>
       </c>
@@ -10610,7 +10711,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="16">
         <v>236</v>
       </c>
@@ -10636,7 +10737,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="16">
         <v>237</v>
       </c>
@@ -10662,7 +10763,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="16">
         <v>238</v>
       </c>
@@ -10688,7 +10789,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="16">
         <v>239</v>
       </c>
@@ -10714,7 +10815,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="16">
         <v>240</v>
       </c>
@@ -10740,7 +10841,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="16">
         <v>241</v>
       </c>
@@ -10766,7 +10867,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="16">
         <v>242</v>
       </c>
@@ -10792,7 +10893,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="16">
         <v>243</v>
       </c>
@@ -10818,7 +10919,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="16">
         <v>244</v>
       </c>
@@ -10844,7 +10945,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="16">
         <v>245</v>
       </c>
@@ -10870,7 +10971,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="16">
         <v>246</v>
       </c>
@@ -10896,7 +10997,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="16">
         <v>247</v>
       </c>
@@ -10922,7 +11023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="16">
         <v>248</v>
       </c>
@@ -10948,7 +11049,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="16">
         <v>249</v>
       </c>
@@ -10974,7 +11075,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="16">
         <v>250</v>
       </c>
@@ -11000,7 +11101,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="16">
         <v>251</v>
       </c>
@@ -11026,7 +11127,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
@@ -11052,33 +11153,34 @@
         <v>738</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="34" t="s">
         <v>744</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
+      <c r="E254" s="34">
+        <v>1</v>
+      </c>
+      <c r="F254" s="34">
+        <v>1</v>
+      </c>
+      <c r="G254" s="34">
+        <v>1</v>
+      </c>
+      <c r="H254" s="34"/>
+      <c r="I254" s="33" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="16">
         <v>254</v>
       </c>
@@ -11104,7 +11206,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
@@ -11130,7 +11232,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" s="28" customFormat="1" ht="16.5">
       <c r="A257" s="26">
         <v>256</v>
       </c>
@@ -11138,7 +11240,7 @@
         <v>755</v>
       </c>
       <c r="C257" s="27" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D257" s="27" t="s">
         <v>756</v>
@@ -11153,10 +11255,10 @@
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A258" s="16">
         <v>257</v>
       </c>
@@ -11182,7 +11284,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A259" s="16">
         <v>258</v>
       </c>
@@ -11208,7 +11310,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A260" s="16">
         <v>259</v>
       </c>
@@ -11234,7 +11336,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
@@ -11260,7 +11362,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="16">
         <v>261</v>
       </c>
@@ -11286,7 +11388,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
@@ -11312,7 +11414,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A264" s="16">
         <v>263</v>
       </c>
@@ -11338,7 +11440,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A265" s="16">
         <v>264</v>
       </c>
@@ -11364,7 +11466,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A266" s="16">
         <v>265</v>
       </c>
@@ -11390,7 +11492,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A267" s="16">
         <v>266</v>
       </c>
@@ -11416,7 +11518,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A268" s="16">
         <v>267</v>
       </c>
@@ -11442,7 +11544,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
@@ -11468,7 +11570,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="16.5">
       <c r="A270" s="16">
         <v>269</v>
       </c>
@@ -11495,7 +11597,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="16.5">
       <c r="A271" s="16">
         <v>270</v>
       </c>
@@ -11522,7 +11624,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="16.5">
       <c r="A272" s="16">
         <v>271</v>
       </c>
@@ -11549,7 +11651,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="16.5">
       <c r="A273" s="16">
         <v>272</v>
       </c>
@@ -11576,7 +11678,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="16.5">
       <c r="A274" s="16">
         <v>273</v>
       </c>
@@ -11603,7 +11705,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="16.5">
       <c r="A275" s="16">
         <v>274</v>
       </c>
@@ -11630,7 +11732,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
       <c r="A276" s="16">
         <v>275</v>
       </c>
@@ -11654,10 +11756,10 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="31" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11680,7 +11782,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A278" s="16">
         <v>277</v>
       </c>
@@ -11688,7 +11790,7 @@
         <v>828</v>
       </c>
       <c r="C278" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D278" s="30" t="s">
         <v>829</v>
@@ -11704,10 +11806,10 @@
       </c>
       <c r="H278" s="27"/>
       <c r="I278" s="27" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="16">
         <v>278</v>
       </c>
@@ -11733,7 +11835,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="16">
         <v>279</v>
       </c>
@@ -11756,7 +11858,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="16">
         <v>280</v>
       </c>
@@ -11782,7 +11884,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="16">
         <v>281</v>
       </c>
@@ -11808,7 +11910,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="16">
         <v>282</v>
       </c>
@@ -11834,7 +11936,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="17.25" customHeight="1">
       <c r="A284" s="16">
         <v>283</v>
       </c>
@@ -11860,7 +11962,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A285" s="16">
         <v>284</v>
       </c>
@@ -11886,7 +11988,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
@@ -11912,7 +12014,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="16.5">
       <c r="A287" s="16">
         <v>286</v>
       </c>
@@ -11938,7 +12040,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="16.5">
       <c r="A288" s="16">
         <v>287</v>
       </c>
@@ -11964,7 +12066,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
@@ -11991,7 +12093,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
@@ -12017,7 +12119,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="16.5">
       <c r="A291" s="16">
         <v>290</v>
       </c>
@@ -12043,7 +12145,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="16.5">
       <c r="A292" s="16">
         <v>291</v>
       </c>
@@ -12069,7 +12171,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="16.5">
       <c r="A293" s="16">
         <v>292</v>
       </c>
@@ -12095,7 +12197,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
@@ -12121,7 +12223,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
@@ -12147,7 +12249,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="16.5">
       <c r="A296" s="16">
         <v>295</v>
       </c>
@@ -12173,7 +12275,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="16.5">
       <c r="A297" s="16">
         <v>296</v>
       </c>
@@ -12199,7 +12301,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="16.5">
       <c r="A298" s="16">
         <v>297</v>
       </c>
@@ -12225,7 +12327,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
@@ -12251,7 +12353,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
@@ -12277,7 +12379,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" s="24" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
@@ -12304,7 +12406,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" s="24" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
@@ -12331,15 +12433,15 @@
         <v>914</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" s="24" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
       <c r="B303" s="29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C303" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28">
@@ -12353,10 +12455,10 @@
       </c>
       <c r="H303" s="28"/>
       <c r="I303" s="27" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="24" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
@@ -12383,7 +12485,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
@@ -12391,7 +12493,7 @@
         <v>921</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D305" s="18" t="s">
         <v>922</v>
@@ -12410,18 +12512,18 @@
         <v>923</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
       <c r="B306" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C306" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D306" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E306" s="28">
         <v>1</v>
@@ -12434,18 +12536,18 @@
       </c>
       <c r="H306" s="28"/>
       <c r="I306" s="27" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
       <c r="B307" s="29" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C307" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D307" s="29" t="s">
         <v>924</v>
@@ -12461,48 +12563,48 @@
       </c>
       <c r="H307" s="28"/>
       <c r="I307" s="27" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="18" t="s">
-        <v>952</v>
-      </c>
-      <c r="C308" s="18" t="s">
-        <v>926</v>
-      </c>
-      <c r="D308" s="18" t="s">
+      <c r="B308" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="C308" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="D308" s="32" t="s">
         <v>925</v>
       </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="H308" s="17"/>
-      <c r="I308" s="19" t="s">
+      <c r="E308" s="34">
+        <v>1</v>
+      </c>
+      <c r="F308" s="34">
+        <v>1</v>
+      </c>
+      <c r="G308" s="34">
+        <v>1</v>
+      </c>
+      <c r="H308" s="34"/>
+      <c r="I308" s="35" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12515,21 +12617,21 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>936</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12542,21 +12644,21 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
       <c r="B311" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="C311" s="15" t="s">
-        <v>945</v>
-      </c>
       <c r="D311" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12569,21 +12671,21 @@
       </c>
       <c r="H311" s="17"/>
       <c r="I311" s="15" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>947</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>949</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>948</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12596,48 +12698,49 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
+      <c r="B313" s="32" t="s">
+        <v>954</v>
+      </c>
+      <c r="C313" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="D313" s="32" t="s">
         <v>955</v>
       </c>
-      <c r="C313" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>956</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E313" s="34">
+        <v>1</v>
+      </c>
+      <c r="F313" s="34">
+        <v>1</v>
+      </c>
+      <c r="G313" s="34">
+        <v>1</v>
+      </c>
+      <c r="H313" s="34"/>
+      <c r="I313" s="33" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="D314" s="18" t="s">
-        <v>963</v>
-      </c>
       <c r="E314" s="17">
         <v>0</v>
       </c>
@@ -12646,6 +12749,58 @@
       </c>
       <c r="G314" s="17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="17.25">
+      <c r="A315" s="16">
+        <v>314</v>
+      </c>
+      <c r="B315" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="C315" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="D315" s="36" t="s">
+        <v>965</v>
+      </c>
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="9" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="17.25">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C316" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="D316" s="36" t="s">
+        <v>966</v>
+      </c>
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="I316" s="19" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -12664,19 +12819,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_1.19/game_module_config.xlsx
+++ b/config_1.19/game_module_config.xlsx
@@ -4109,9 +4109,6 @@
     <t>act_ty_collect_words</t>
   </si>
   <si>
-    <t>Act_Ty_ Collet_WordsManager</t>
-  </si>
-  <si>
     <t>SYS_JBPManager</t>
   </si>
   <si>
@@ -4140,6 +4137,10 @@
       </rPr>
       <t>25日 23:59:59</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_Collet_WordsManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4727,7 +4728,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A315" sqref="A315"/>
+      <selection pane="bottomRight" activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12759,10 +12760,10 @@
         <v>964</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D315" s="36" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12774,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12782,13 +12783,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D316" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>

--- a/config_1.19/game_module_config.xlsx
+++ b/config_1.19/game_module_config.xlsx
@@ -4140,7 +4140,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_Ty_Collet_WordsManager</t>
+    <t>Act_Ty_Collect_WordsManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4728,7 +4728,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D320" sqref="D320"/>
+      <selection pane="bottomRight" activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12762,7 +12762,7 @@
       <c r="C315" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="D315" s="36" t="s">
+      <c r="D315" s="20" t="s">
         <v>970</v>
       </c>
       <c r="E315" s="17">

--- a/config_1.19/game_module_config.xlsx
+++ b/config_1.19/game_module_config.xlsx
@@ -4728,7 +4728,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D318" sqref="D318"/>
+      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.19/game_module_config.xlsx
+++ b/config_1.19/game_module_config.xlsx
@@ -4252,7 +4252,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4301,6 +4301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4333,7 +4339,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4403,9 +4409,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4424,9 +4427,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4443,6 +4443,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4725,10 +4743,10 @@
   <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4745,7 +4763,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11158,26 +11176,26 @@
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="33" t="s">
+      <c r="B254" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="C254" s="34" t="s">
+      <c r="C254" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="D254" s="33" t="s">
+      <c r="D254" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="E254" s="34">
-        <v>1</v>
-      </c>
-      <c r="F254" s="34">
-        <v>1</v>
-      </c>
-      <c r="G254" s="34">
-        <v>1</v>
-      </c>
-      <c r="H254" s="34"/>
-      <c r="I254" s="33" t="s">
+      <c r="E254" s="32">
+        <v>1</v>
+      </c>
+      <c r="F254" s="32">
+        <v>1</v>
+      </c>
+      <c r="G254" s="32">
+        <v>1</v>
+      </c>
+      <c r="H254" s="32"/>
+      <c r="I254" s="31" t="s">
         <v>739</v>
       </c>
     </row>
@@ -11233,26 +11251,26 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="28" customFormat="1" ht="16.5">
-      <c r="A257" s="26">
+    <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A257" s="25">
         <v>256</v>
       </c>
-      <c r="B257" s="27" t="s">
+      <c r="B257" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="27" t="s">
+      <c r="C257" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="D257" s="27" t="s">
+      <c r="D257" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="E257" s="28">
-        <v>1</v>
-      </c>
-      <c r="F257" s="28">
-        <v>1</v>
-      </c>
-      <c r="G257" s="28">
+      <c r="E257" s="27">
+        <v>1</v>
+      </c>
+      <c r="F257" s="27">
+        <v>1</v>
+      </c>
+      <c r="G257" s="27">
         <v>1</v>
       </c>
       <c r="I257" s="22" t="s">
@@ -11747,7 +11765,7 @@
         <v>824</v>
       </c>
       <c r="E276" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" s="17">
         <v>1</v>
@@ -11756,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="H276" s="17"/>
-      <c r="I276" s="31" t="s">
+      <c r="I276" s="29" t="s">
         <v>926</v>
       </c>
     </row>
@@ -11771,7 +11789,7 @@
         <v>826</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -11783,30 +11801,30 @@
         <v>827</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="23" customFormat="1" ht="15.75" customHeight="1">
+    <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A278" s="16">
         <v>277</v>
       </c>
-      <c r="B278" s="27" t="s">
+      <c r="B278" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="C278" s="27" t="s">
+      <c r="C278" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="D278" s="30" t="s">
+      <c r="D278" s="35" t="s">
         <v>829</v>
       </c>
-      <c r="E278" s="27">
-        <v>0</v>
-      </c>
-      <c r="F278" s="27">
-        <v>0</v>
-      </c>
-      <c r="G278" s="27">
-        <v>0</v>
-      </c>
-      <c r="H278" s="27"/>
-      <c r="I278" s="27" t="s">
+      <c r="E278" s="15">
+        <v>0</v>
+      </c>
+      <c r="F278" s="15">
+        <v>0</v>
+      </c>
+      <c r="G278" s="15">
+        <v>0</v>
+      </c>
+      <c r="H278" s="15"/>
+      <c r="I278" s="15" t="s">
         <v>938</v>
       </c>
     </row>
@@ -11824,7 +11842,7 @@
         <v>830</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -11899,7 +11917,7 @@
         <v>836</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -11937,55 +11955,55 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A284" s="16">
+    <row r="284" spans="1:9" s="39" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A284" s="36">
         <v>283</v>
       </c>
-      <c r="B284" s="20" t="s">
+      <c r="B284" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="37" t="s">
         <v>846</v>
       </c>
-      <c r="D284" s="18" t="s">
+      <c r="D284" s="38" t="s">
         <v>847</v>
       </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
+      <c r="E284" s="39">
+        <v>1</v>
+      </c>
+      <c r="F284" s="39">
+        <v>1</v>
+      </c>
+      <c r="G284" s="39">
+        <v>1</v>
+      </c>
+      <c r="I284" s="40" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A285" s="16">
+    <row r="285" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A285" s="36">
         <v>284</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="38" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="E285" s="17">
-        <v>1</v>
-      </c>
-      <c r="F285" s="17">
-        <v>1</v>
-      </c>
-      <c r="G285" s="17">
-        <v>1</v>
-      </c>
-      <c r="I285" s="19" t="s">
+      <c r="E285" s="39">
+        <v>1</v>
+      </c>
+      <c r="F285" s="39">
+        <v>1</v>
+      </c>
+      <c r="G285" s="39">
+        <v>1</v>
+      </c>
+      <c r="I285" s="40" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12015,55 +12033,55 @@
         <v>859</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="16.5">
-      <c r="A287" s="16">
+    <row r="287" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A287" s="36">
         <v>286</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="38" t="s">
         <v>860</v>
       </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="19" t="s">
+      <c r="E287" s="39">
+        <v>1</v>
+      </c>
+      <c r="F287" s="39">
+        <v>1</v>
+      </c>
+      <c r="G287" s="39">
+        <v>1</v>
+      </c>
+      <c r="I287" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="16.5">
-      <c r="A288" s="16">
+    <row r="288" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A288" s="36">
         <v>287</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="37" t="s">
         <v>863</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="37" t="s">
         <v>864</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="38" t="s">
         <v>865</v>
       </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="19" t="s">
+      <c r="E288" s="39">
+        <v>1</v>
+      </c>
+      <c r="F288" s="39">
+        <v>1</v>
+      </c>
+      <c r="G288" s="39">
+        <v>1</v>
+      </c>
+      <c r="I288" s="40" t="s">
         <v>866</v>
       </c>
     </row>
@@ -12094,185 +12112,185 @@
         <v>868</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="16.5">
-      <c r="A290" s="16">
+    <row r="290" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A290" s="36">
         <v>289</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B290" s="37" t="s">
         <v>871</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="D290" s="38" t="s">
         <v>873</v>
       </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-      <c r="I290" s="19" t="s">
+      <c r="E290" s="39">
+        <v>1</v>
+      </c>
+      <c r="F290" s="39">
+        <v>1</v>
+      </c>
+      <c r="G290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="40" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="16.5">
-      <c r="A291" s="16">
+    <row r="291" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A291" s="36">
         <v>290</v>
       </c>
-      <c r="B291" s="20" t="s">
+      <c r="B291" s="38" t="s">
         <v>875</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="D291" s="20" t="s">
+      <c r="D291" s="38" t="s">
         <v>877</v>
       </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="19" t="s">
+      <c r="E291" s="39">
+        <v>1</v>
+      </c>
+      <c r="F291" s="39">
+        <v>1</v>
+      </c>
+      <c r="G291" s="39">
+        <v>1</v>
+      </c>
+      <c r="I291" s="40" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="16.5">
-      <c r="A292" s="16">
+    <row r="292" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A292" s="36">
         <v>291</v>
       </c>
-      <c r="B292" s="20" t="s">
+      <c r="B292" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="C292" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="D292" s="38" t="s">
         <v>881</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="19" t="s">
+      <c r="E292" s="39">
+        <v>1</v>
+      </c>
+      <c r="F292" s="39">
+        <v>1</v>
+      </c>
+      <c r="G292" s="39">
+        <v>1</v>
+      </c>
+      <c r="I292" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="16.5">
-      <c r="A293" s="16">
+    <row r="293" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A293" s="36">
         <v>292</v>
       </c>
-      <c r="B293" s="20" t="s">
+      <c r="B293" s="38" t="s">
         <v>882</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C293" s="37" t="s">
         <v>887</v>
       </c>
-      <c r="D293" s="20" t="s">
+      <c r="D293" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="19" t="s">
+      <c r="E293" s="39">
+        <v>1</v>
+      </c>
+      <c r="F293" s="39">
+        <v>1</v>
+      </c>
+      <c r="G293" s="39">
+        <v>1</v>
+      </c>
+      <c r="I293" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="16.5">
-      <c r="A294" s="16">
+    <row r="294" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A294" s="36">
         <v>293</v>
       </c>
-      <c r="B294" s="20" t="s">
+      <c r="B294" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C294" s="37" t="s">
         <v>888</v>
       </c>
-      <c r="D294" s="20" t="s">
+      <c r="D294" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="19" t="s">
+      <c r="E294" s="39">
+        <v>1</v>
+      </c>
+      <c r="F294" s="39">
+        <v>1</v>
+      </c>
+      <c r="G294" s="39">
+        <v>1</v>
+      </c>
+      <c r="I294" s="40" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="16.5">
-      <c r="A295" s="16">
+    <row r="295" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A295" s="36">
         <v>294</v>
       </c>
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C295" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="D295" s="20" t="s">
+      <c r="D295" s="38" t="s">
         <v>891</v>
       </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="19" t="s">
+      <c r="E295" s="39">
+        <v>1</v>
+      </c>
+      <c r="F295" s="39">
+        <v>1</v>
+      </c>
+      <c r="G295" s="39">
+        <v>1</v>
+      </c>
+      <c r="I295" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5">
-      <c r="A296" s="16">
+    <row r="296" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A296" s="36">
         <v>295</v>
       </c>
-      <c r="B296" s="20" t="s">
+      <c r="B296" s="38" t="s">
         <v>892</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="D296" s="20" t="s">
+      <c r="D296" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="19" t="s">
+      <c r="E296" s="39">
+        <v>1</v>
+      </c>
+      <c r="F296" s="39">
+        <v>1</v>
+      </c>
+      <c r="G296" s="39">
+        <v>1</v>
+      </c>
+      <c r="I296" s="40" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12354,33 +12372,33 @@
         <v>910</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="16.5">
-      <c r="A300" s="16">
+    <row r="300" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A300" s="36">
         <v>299</v>
       </c>
-      <c r="B300" s="20" t="s">
+      <c r="B300" s="38" t="s">
         <v>904</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C300" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="D300" s="20" t="s">
+      <c r="D300" s="38" t="s">
         <v>906</v>
       </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-      <c r="I300" s="19" t="s">
+      <c r="E300" s="39">
+        <v>1</v>
+      </c>
+      <c r="F300" s="39">
+        <v>1</v>
+      </c>
+      <c r="G300" s="39">
+        <v>1</v>
+      </c>
+      <c r="I300" s="40" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="24" customFormat="1" ht="16.5">
+    <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A301" s="16">
         <v>300</v>
       </c>
@@ -12407,7 +12425,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="24" customFormat="1" ht="16.5">
+    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
@@ -12434,32 +12452,32 @@
         <v>914</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="24" customFormat="1" ht="16.5">
+    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="29" t="s">
+      <c r="B303" s="28" t="s">
         <v>937</v>
       </c>
-      <c r="C303" s="27" t="s">
+      <c r="C303" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="D303" s="28"/>
-      <c r="E303" s="28">
-        <v>1</v>
-      </c>
-      <c r="F303" s="28">
-        <v>1</v>
-      </c>
-      <c r="G303" s="28">
-        <v>1</v>
-      </c>
-      <c r="H303" s="28"/>
-      <c r="I303" s="27" t="s">
+      <c r="D303" s="27"/>
+      <c r="E303" s="27">
+        <v>1</v>
+      </c>
+      <c r="F303" s="27">
+        <v>1</v>
+      </c>
+      <c r="G303" s="27">
+        <v>1</v>
+      </c>
+      <c r="H303" s="27"/>
+      <c r="I303" s="26" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="24" customFormat="1" ht="16.5">
+    <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
@@ -12486,30 +12504,29 @@
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5">
-      <c r="A305" s="16">
+    <row r="305" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A305" s="36">
         <v>304</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="38" t="s">
         <v>921</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="D305" s="18" t="s">
+      <c r="D305" s="38" t="s">
         <v>922</v>
       </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="H305" s="17"/>
-      <c r="I305" s="19" t="s">
+      <c r="E305" s="39">
+        <v>1</v>
+      </c>
+      <c r="F305" s="39">
+        <v>1</v>
+      </c>
+      <c r="G305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="40" t="s">
         <v>923</v>
       </c>
     </row>
@@ -12517,26 +12534,26 @@
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="29" t="s">
+      <c r="B306" s="28" t="s">
         <v>949</v>
       </c>
-      <c r="C306" s="27" t="s">
+      <c r="C306" s="26" t="s">
         <v>956</v>
       </c>
-      <c r="D306" s="29" t="s">
+      <c r="D306" s="28" t="s">
         <v>952</v>
       </c>
-      <c r="E306" s="28">
-        <v>1</v>
-      </c>
-      <c r="F306" s="28">
-        <v>1</v>
-      </c>
-      <c r="G306" s="28">
-        <v>1</v>
-      </c>
-      <c r="H306" s="28"/>
-      <c r="I306" s="27" t="s">
+      <c r="E306" s="27">
+        <v>1</v>
+      </c>
+      <c r="F306" s="27">
+        <v>1</v>
+      </c>
+      <c r="G306" s="27">
+        <v>1</v>
+      </c>
+      <c r="H306" s="27"/>
+      <c r="I306" s="26" t="s">
         <v>958</v>
       </c>
     </row>
@@ -12544,26 +12561,26 @@
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="29" t="s">
+      <c r="B307" s="28" t="s">
         <v>950</v>
       </c>
-      <c r="C307" s="27" t="s">
+      <c r="C307" s="26" t="s">
         <v>957</v>
       </c>
-      <c r="D307" s="29" t="s">
+      <c r="D307" s="28" t="s">
         <v>924</v>
       </c>
-      <c r="E307" s="28">
-        <v>1</v>
-      </c>
-      <c r="F307" s="28">
-        <v>1</v>
-      </c>
-      <c r="G307" s="28">
-        <v>1</v>
-      </c>
-      <c r="H307" s="28"/>
-      <c r="I307" s="27" t="s">
+      <c r="E307" s="27">
+        <v>1</v>
+      </c>
+      <c r="F307" s="27">
+        <v>1</v>
+      </c>
+      <c r="G307" s="27">
+        <v>1</v>
+      </c>
+      <c r="H307" s="27"/>
+      <c r="I307" s="26" t="s">
         <v>958</v>
       </c>
     </row>
@@ -12571,26 +12588,26 @@
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="32" t="s">
+      <c r="B308" s="30" t="s">
         <v>951</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="C308" s="30" t="s">
         <v>963</v>
       </c>
-      <c r="D308" s="32" t="s">
+      <c r="D308" s="30" t="s">
         <v>925</v>
       </c>
-      <c r="E308" s="34">
-        <v>1</v>
-      </c>
-      <c r="F308" s="34">
-        <v>1</v>
-      </c>
-      <c r="G308" s="34">
-        <v>1</v>
-      </c>
-      <c r="H308" s="34"/>
-      <c r="I308" s="35" t="s">
+      <c r="E308" s="32">
+        <v>1</v>
+      </c>
+      <c r="F308" s="32">
+        <v>1</v>
+      </c>
+      <c r="G308" s="32">
+        <v>1</v>
+      </c>
+      <c r="H308" s="32"/>
+      <c r="I308" s="33" t="s">
         <v>645</v>
       </c>
     </row>
@@ -12635,7 +12652,7 @@
         <v>935</v>
       </c>
       <c r="E310" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310" s="17">
         <v>1</v>
@@ -12648,30 +12665,29 @@
         <v>933</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="16.5">
-      <c r="A311" s="16">
+    <row r="311" spans="1:9" s="39" customFormat="1" ht="16.5">
+      <c r="A311" s="36">
         <v>310</v>
       </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" s="38" t="s">
         <v>943</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="C311" s="37" t="s">
         <v>944</v>
       </c>
-      <c r="D311" s="18" t="s">
+      <c r="D311" s="38" t="s">
         <v>942</v>
       </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="H311" s="17"/>
-      <c r="I311" s="15" t="s">
+      <c r="E311" s="39">
+        <v>1</v>
+      </c>
+      <c r="F311" s="39">
+        <v>1</v>
+      </c>
+      <c r="G311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="37" t="s">
         <v>945</v>
       </c>
     </row>
@@ -12702,30 +12718,29 @@
         <v>958</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="16.5">
+    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="32" t="s">
+      <c r="B313" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="C313" s="33" t="s">
+      <c r="C313" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="D313" s="32" t="s">
+      <c r="D313" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="E313" s="34">
-        <v>1</v>
-      </c>
-      <c r="F313" s="34">
-        <v>1</v>
-      </c>
-      <c r="G313" s="34">
-        <v>1</v>
-      </c>
-      <c r="H313" s="34"/>
-      <c r="I313" s="33" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>959</v>
       </c>
     </row>
@@ -12756,7 +12771,7 @@
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="36" t="s">
+      <c r="B315" s="34" t="s">
         <v>964</v>
       </c>
       <c r="C315" s="15" t="s">
@@ -12782,13 +12797,13 @@
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
+      <c r="B316" s="34" t="s">
         <v>966</v>
       </c>
       <c r="C316" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="D316" s="36" t="s">
+      <c r="D316" s="34" t="s">
         <v>965</v>
       </c>
       <c r="E316" s="17">
